--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Data/god_talk.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Data/god_talk.xlsx
@@ -795,7 +795,7 @@
     <t xml:space="preserve">벼, 별로 네 활약을 기대하고 있지는 않으니까!</t>
   </si>
   <si>
-    <t xml:space="preserve">잘 왔어… 기대… 하고 있을게.</t>
+    <t xml:space="preserve">잘 왔어… 기대… 하고 있어.</t>
   </si>
   <si>
     <t xml:space="preserve">うみみやぁ！</t>
@@ -849,7 +849,7 @@
 바, 바보!</t>
   </si>
   <si>
-    <t xml:space="preserve">고마워… 정말 좋아… 이거…
+    <t xml:space="preserve">고마워… 정말 좋아… 이거.
 이건… 좋네…
 받아 둘게…
 좋은 거네…
@@ -857,7 +857,7 @@
   </si>
   <si>
     <t xml:space="preserve">이건 받지 않을 수가 없네.
-꽤 좋은 취미를 가지고 있는 걸.
+취향이 꽤 훌륭한걸.
 네 열정에 감동받았어.
 잘 받을게. 고마워.</t>
   </si>
@@ -867,12 +867,12 @@
 당신의 헌신엔 항상 감사하고 있습니다.</t>
   </si>
   <si>
-    <t xml:space="preserve">좋은 선물이네. 고마워.
+    <t xml:space="preserve">응, 좋은 선물이네. 고맙게 받을게.
 날 신경 써주는 건 고마운데… 일단 네 장비에 제대로 투자하고 있는 거 맞지?
 재미있는 걸 주네. 고마워.</t>
   </si>
   <si>
-    <t xml:space="preserve">너는 나의 충실한 종이다. 이것을 유용하게 사용할 수 있으면 좋겠지.</t>
+    <t xml:space="preserve">너는 나의 충실한 종이다. 이것을 유용하게 사용하거라.</t>
   </si>
   <si>
     <t xml:space="preserve">하인인 네게 주는 포상이야. 소중히 사용하세요.</t>
@@ -929,10 +929,10 @@
     <t xml:space="preserve">어머, 가 버린 건가요… 슬프네요…</t>
   </si>
   <si>
-    <t xml:space="preserve">넌 내 마음에 들었었는데, 음… 그럼 마침 신이니 천벌로 가볼까.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">제법이군. 다시 보겠어.</t>
+    <t xml:space="preserve">넌 내 마음에 들었었는데, 음… 그럼 신 답게 천벌로 가볼까.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">제법이군. 다시 봤다.</t>
   </si>
   <si>
     <t xml:space="preserve">칭찬해 줄게요. 내 귀여운 작은 인형씨.</t>
@@ -941,7 +941,7 @@
     <t xml:space="preserve">좋다. 여의 행동을 기억해 두겠노라.</t>
   </si>
   <si>
-    <t xml:space="preserve">와아♪ 기뻐! 너 좋네! 완전 좋아!</t>
+    <t xml:space="preserve">와아♪ 기뻐! 너 좋아! 완전 좋아!</t>
   </si>
   <si>
     <t xml:space="preserve">후하핫, 좋아 좋아.</t>
@@ -980,7 +980,7 @@
     <t xml:space="preserve">뭐, 뭐 하는 거야!</t>
   </si>
   <si>
-    <t xml:space="preserve">적은… 용서하지 않아… 절대로…</t>
+    <t xml:space="preserve">적은… 용서하지 않아… 절대로.</t>
   </si>
   <si>
     <t xml:space="preserve">과감한 시도, 흥미로워. 보기 좋았어. 하지만 유감이네～</t>
@@ -995,19 +995,19 @@
     <t xml:space="preserve">넌 확실히 신도의 모범이로구나.</t>
   </si>
   <si>
-    <t xml:space="preserve">평생 나를 위해 노력하세요. 당신은 나의 제일가는 노예니까.</t>
+    <t xml:space="preserve">평생 나를 위해 노력하세요. 넌 나의 제일가는 노예니까.</t>
   </si>
   <si>
     <t xml:space="preserve">짐의 이름을 짊어질만한 자는 이미 사라진 지 오래다… 하지만… 여라면…</t>
   </si>
   <si>
-    <t xml:space="preserve">두근두근두근! 심장이 두근거리네! 너를 좋아해서 그런 것 같아! 그런가 봐!</t>
+    <t xml:space="preserve">두근두근두근. 네가 좋아. 좋아해!</t>
   </si>
   <si>
     <t xml:space="preserve">후핫하하하하하하! 유쾌 유쾌!</t>
   </si>
   <si>
-    <t xml:space="preserve">그, 그만! 난 너를 좋아하지 않으니깐! 이 바보!</t>
+    <t xml:space="preserve">그, 그만해. 난 너를 좋아하지 않으니깐! 이 바보야!</t>
   </si>
   <si>
     <t xml:space="preserve">너는… 내 소중한 종이야…</t>
@@ -1016,7 +1016,7 @@
     <t xml:space="preserve">…너는 나의… 아니, 거추장스러운 이야기는 집어 치우자.</t>
   </si>
   <si>
-    <t xml:space="preserve">꼬리를 만지고 싶으신건가요? 우후후, 좋아요. 자.</t>
+    <t xml:space="preserve">꼬리를 만지고 싶으신건가요? 우후후, 좋아요. 자아.</t>
   </si>
   <si>
     <t xml:space="preserve">너를 관찰하고 있으면 시간이 금방 가서 좋네.</t>
@@ -1070,7 +1070,7 @@
     <t xml:space="preserve">벼, 별로 네가 돌아오길 기다리고 있진 않았거든!</t>
   </si>
   <si>
-    <t xml:space="preserve">어서 와… 기다리고 있었어…</t>
+    <t xml:space="preserve">어서 와… 기다리고 있었어.</t>
   </si>
   <si>
     <t xml:space="preserve">나 보고 싶었어?</t>
@@ -1113,13 +1113,13 @@
   </si>
   <si>
     <t xml:space="preserve">잘 했다.
-분해해 보고 싶지 않은가?
+분해해 보고 싶지 않나?
 그 영혼으론 좋은 기계를 만들 수 있을 것 같군.</t>
   </si>
   <si>
     <t xml:space="preserve">불결하게, 피를 닦으세요.
-아하핫! 모두 다져버리세요!
-어머나, 나쁜 아기 고양이쨩이네.</t>
+아하핫! 모두 다져버려!
+어머나, 못된 아기 고양이쨩이네.</t>
   </si>
   <si>
     <t xml:space="preserve">제법이로구나.
@@ -1142,8 +1142,8 @@
 이쪽으로 오지 마!</t>
   </si>
   <si>
-    <t xml:space="preserve">더러워졌네…
-적당히 해…
+    <t xml:space="preserve">더러워졌네.
+적당히 해.
 …이게… 네가 바라고 있던 거야?</t>
   </si>
   <si>
@@ -1160,21 +1160,21 @@
   </si>
   <si>
     <t xml:space="preserve">좋았어! 역시 투쟁은 이래야지.
-응, 좋은 기술이네. 보기만 해도 즐거운 걸.
+응, 좋은 기술이네. 보기만 해도 즐거워.
 좋았어! 전부 밟아버려!
 후후, 점점 성장하고 있는 걸 느끼고 있지?
 착실히 경험을 쌓고 있네. 훌륭해!</t>
   </si>
   <si>
-    <t xml:space="preserve">신체를 기계로 바꿔보는 건 어떤가?
+    <t xml:space="preserve">너도 신체를 기계로 바꿔보는 건 어떤가?
 항상 내 이름에 부끄럽지 않게 행동하도록.
 조급해 하지 마라. 곧 기계가 모든 것을 지배하는 시대가 올 테니.</t>
   </si>
   <si>
     <t xml:space="preserve">쓸모없는 돼지들 같으니.
-마니? 그 이름을 다시 언급하면 다져버릴 거야, 새끼 고양이쨩.
-전의 하인은 갈기갈기 찢어서 실프들의 먹이로 줬어요. 머리 스타일이 좀 맘에 안 들어서 말이야. 아하핫!
-나의 아이들은 바람의 소리, 어떠한 일에도 속박되어선 안 돼. 너도 마찬가지로.</t>
+마니? 그 이름을 또 입에 담으면 다져버릴 거야, 새끼 고양이쨩.
+전의 하인은 갈기갈기 찢어서 실프들의 먹이로 줬어. 머리 스타일이 좀 맘에 안 들어서 말이야. 아하핫!
+나의 아이들은 바람의 소리, 어떤 것에도 속박되어선 안 돼. 너도 마찬가지로.</t>
   </si>
   <si>
     <t xml:space="preserve">그대여, 방심하지 말아라.
@@ -1183,53 +1183,52 @@
 신들의 전쟁엔 끝이 없도다. 여도 때가 되면 나의 밑에서 싸우게 되리라.</t>
   </si>
   <si>
-    <t xml:space="preserve">코코넛 크랩!
-킹 크랩!</t>
+    <t xml:space="preserve">킹 크랩!</t>
   </si>
   <si>
     <t xml:space="preserve">후하하하하!</t>
   </si>
   <si>
-    <t xml:space="preserve">엣, 뭐, 뭔가요. 이 바보는!
-나는 정말 이 일에 맞는 걸까?</t>
+    <t xml:space="preserve">엣, 뭐, 뭔데 바보야!
+나는 정말 이 일에 맞는 걸까…</t>
   </si>
   <si>
     <t xml:space="preserve">나무들의 지저귐… 숲의 생명이 연주하는 노래… 귀를 기울이면…
 싸움은… 추악해.
 나의 에헤카틀… 지금은… 예전의 모습을 찾아볼 수 없네…
-나는 줄 거야… 너희들이 뺏는 것 이상으로…</t>
+나는 줄 거야… 너희들이 뺏는 것 이상으로.</t>
   </si>
   <si>
     <t xml:space="preserve">나를 향한 기도는 때론 축복을, 때론 저주를 가져온다고 알려져 있지.
-헤, 나에게 말을 걸다니 용감하네. 아니면 상당한 궁지에 몰려있는 걸까?
+헤, 나에게 말을 걸다니 용감하네. 아니면 상당히 궁지에 몰려있는 걸까?
 자, 이 이상으로 나를 지루하게 하지는 말아 줬으면 좋겠네.
 기도는 물론 듣고 있어. 화답할지 어떨진 별개지만.
-호로메는 언제까지나 어린애네. 아직도 단것들을 공물로 받고 있는 거야?</t>
+호로메는 언제까지나 어린애구나. 아직도 간식거리를 공물로 받고 있는 모양이니.</t>
   </si>
   <si>
     <t xml:space="preserve">달빛이 당신을 인도할 테니 어둠을 두려워할 필요는 없어요. 
 당신을 언제나 지켜보고 있습니다.
 네네, 제대로 듣고 있어요.
 어머, 무슨 일인가요? 제가 도와드릴 수 있는 일이 있을까요?
-키즈아미는 매우 믿음직한 오빠에요. 가끔씩 짓궃게 굴지만요.</t>
+키즈아미는 매우 믿음직한 오빠에요. 가끔씩 짓궂게 굴지만요.</t>
   </si>
   <si>
     <t xml:space="preserve">맞아, 믿음이 승패를 가릴 때도 있지, 원한다면 도와줄게.
 나의 힘이 필요해?
 너에게, 전란의 가호가 있기를.
-너무 약한 것들만 노리지는 마? 강적과도 싸워주는 거지?
+너무 약한 것들만 괴롭히지는 마? 강적과도 싸워주는 거지?
 정체는 부패를 초래하지. 그러니까 적당한 자극이 필요한 거야.</t>
   </si>
   <si>
     <t xml:space="preserve">문명의 진화는 항상 인류에게 환멸을 안겨줬지.
 내 몸의 일부가 아직 사라지지 않고 하계에 남아있는 것 같구나. 놀랍군.
 무슨 일이지? 아니, 놀고 있는 건가.
-기도 같은 것들은 정말 비이성적인 행위라고 생각하지 않는가?
+기도 같은 것들은 정말 비이성적인 행위라고 생각하지 않나?
 기계에 의한 통치야말로 바로 인류의 구원이다.</t>
   </si>
   <si>
     <t xml:space="preserve">어머나, 기도라니 기특한 마음가짐이네.
-넌 바람의 이름을 알고 싶다고 생각해?
+넌 바람의 이름을 알고 싶어?
 역시 멍청하네. 기도할 시간이 있으면 일이나 하세요.
 저기 있지, 갈기갈기 찢어줄까? 아니면, 서서히 썰어줄까?
 내게 전부 바치세요, 아기 고양이쨩.</t>
@@ -1260,34 +1259,34 @@
   <si>
     <t xml:space="preserve">뭐, 뭐야, 무슨 일 있어…?
 피곤한 거야? 내, 내 곁에서 쉬어!
-나는 쥬아, 치유의 여신…
+나는 쥬아, 치유하는 자…
 방위자…? 잠깐, 어디 간 거야? 방위자!
-지친 영혼을 달래는 것이 내 일이야.</t>
+지친 영혼을 달래는 게 내 일이야.</t>
   </si>
   <si>
     <t xml:space="preserve">대지의 은혜… 느껴져…?
-너의 기도… 도착했어…
-언제나 보고 있어… 너의 행동을…
-맞아… 거기 있어…
+너의 기도… 닿고 있어…
+언제나 보고 있어… 너의 행동을.
+그래… 거기에 있어…
 싹트는 삶… 저무는 삶… 나는 그저 지켜보기만 할 뿐…
 꽃도… 너도… 결국은…</t>
   </si>
   <si>
     <t xml:space="preserve">내가 조금 도와줄까?
 고민할 필요 뭐 있어? 여우를 믿으면 돼.
-넌 정말 날 놀라게 하네, 다음엔 뭘 할 생각이야?
+넌 정말 날 놀라게 하네. 다음엔 뭘 할 생각이야?
 넌 지금 내 관심을 끌었어. 자, 그럼 이 기회를 의미 있게 만들어보자.
 아무리 시간이 지나도 호로메는 내 귀여운 여동생이야.</t>
   </si>
   <si>
-    <t xml:space="preserve">네? '꼬리를 만지고 싶어'…? 곤란한 아이네요…
+    <t xml:space="preserve">네? 꼬리를 만지고 싶다고요…? 곤란한 아이네요…
 열심히 하고 계시네요. 잘 보고 있습니다.
-저에겐 두 명의 형제자매가 있습니다… 아니, 있었습니다. 유후는 이제…
+저에겐 두 명의 형제자매가 있습니다… 아니, 있었습니다. 유후는 이미…
 괜찮아요 괜찮아. 그 누구도 당신을 다치게 하지 못하게 할 거에요.</t>
   </si>
   <si>
     <t xml:space="preserve">너는 너의 길을 가면 돼. 난 그걸 지켜보며 즐길 거니깐.
-쿠미로미와 쥬아는 존경하고 있어. 응? 병참과 의료는 싸움에서 중요하니깐.
+쿠미로미랑 쥬아는 존경하고 있어. 응? 병참과 의료는 싸움에서 중요하니깐.
 이 눈의 상처? 뭐, 훈장 같은 거지.
 너를 보고 있으니 또 다시 전쟁터에 나가고 싶어지는걸.</t>
   </si>
@@ -1313,10 +1312,10 @@
   </si>
   <si>
     <t xml:space="preserve">에…? 그, 그냥…
-좀 남아서 주는 거야. 그러니까, 착각하지 마!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이 씨앗을… 너에게 맡길게… 소중히 해…
+좀 남아서 주는 거야. 착각하지 말라구!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이 씨앗을… 너에게 맡길게… 소중히 다뤄.
 맞아… 이거…</t>
   </si>
   <si>
@@ -1361,13 +1360,13 @@
     <t xml:space="preserve">추방자여, 이 자의 밑에서 죄를 속죄하도록 하라.</t>
   </si>
   <si>
-    <t xml:space="preserve">자! 가서 놀다 와도 좋아!</t>
+    <t xml:space="preserve">자! 가서 놀다 와!</t>
   </si>
   <si>
     <t xml:space="preserve">후하하하하하, 재밌군! 이 자를 따라가라!</t>
   </si>
   <si>
-    <t xml:space="preserve">방위자, 이 자를 지켜주세요.</t>
+    <t xml:space="preserve">방위자, 이 #pc_race을(를) 지켜줘.</t>
   </si>
   <si>
     <t xml:space="preserve">잘 다녀오세요, 요정씨.</t>
@@ -1376,19 +1375,19 @@
     <t xml:space="preserve">내 딸아, 나를 즐겁게 해 준 이 사람을 열심히 도와주렴.</t>
   </si>
   <si>
-    <t xml:space="preserve">여우씨, 저를 섬겼던 것처럼 시종씨를 잘 보살펴 주세요.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이 자에게 힘을 빌려줘. 뭐어, 걱정하지 마.</t>
+    <t xml:space="preserve">메이드 여우씨, 저를 섬길 때처럼 이 사람도 잘 보살펴 주세요.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이 자에게 힘을 빌려줘. 뭐어, 너라면 걱정 없지.</t>
   </si>
   <si>
     <t xml:space="preserve">빨리 일어나라.</t>
   </si>
   <si>
-    <t xml:space="preserve">아하하, 잠자는 얼굴이 참 귀여웠어요, 아기 고양이쨩.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">일찍 일어나는 것이 좋을 것이다.</t>
+    <t xml:space="preserve">아하하, 잠자는 얼굴이 참 귀여웠어, 아기 고양이쨩.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">조속히 일어나거라.</t>
   </si>
   <si>
     <t xml:space="preserve">우미먀아!</t>
@@ -1400,7 +1399,7 @@
     <t xml:space="preserve">이, 일어나!</t>
   </si>
   <si>
-    <t xml:space="preserve">좋은 아침… 잘 잤어?</t>
+    <t xml:space="preserve">좋은 아침… 잘 잤어…?</t>
   </si>
   <si>
     <t xml:space="preserve">괜찮을 거다. 사용하도록.</t>
@@ -1424,7 +1423,7 @@
     <t xml:space="preserve">이거… 줄게…</t>
   </si>
   <si>
-    <t xml:space="preserve">내 여동생을 따뜻하게 대해줘야 해. 정말 성실한 애니까.
+    <t xml:space="preserve">내 여동생을 따뜻하게 대해줘야 해. 정말 착한 애니까.
 호로메를 만나러 간다면 달콤한 과자랑 안부를 전해줘～</t>
   </si>
   <si>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Data/god_talk.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Data/god_talk.xlsx
@@ -1281,7 +1281,7 @@
   <si>
     <t xml:space="preserve">네? 꼬리를 만지고 싶다고요…? 곤란한 아이네요…
 열심히 하고 계시네요. 잘 보고 있습니다.
-저에겐 두 명의 형제자매가 있습니다… 아니, 있었습니다. 유후는 이미…
+저에겐 두 명의 오빠가 있습니다… 아니, 있었습니다. 유후는 이미…
 괜찮아요 괜찮아. 그 누구도 당신을 다치게 하지 못하게 할 거에요.</t>
   </si>
   <si>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Data/god_talk.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Data/god_talk.xlsx
@@ -1052,7 +1052,7 @@
     <t xml:space="preserve">내가 누굴 편애하진 않지만 너만은 특별히, 알겠지?</t>
   </si>
   <si>
-    <t xml:space="preserve">돌아왔는가. 의외로 우유부단하구나.</t>
+    <t xml:space="preserve">돌아왔는가. 의외로 기골이 있는 녀석이군.</t>
   </si>
   <si>
     <t xml:space="preserve">어딜 마음대로 돌아다니고 있었던 거야. 좀 더 조교가 필요하겠네.</t>
